--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F19A6A-80FA-4472-BC35-00CCEF8F8279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5909EE-E88B-43D7-B664-596C63D1AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6435" yWindow="1185" windowWidth="21600" windowHeight="22305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="663">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -622,12 +622,6 @@
     <t>BAU Heat Rate by Electricity Fuel</t>
   </si>
   <si>
-    <t>NSDoDC</t>
-  </si>
-  <si>
-    <t>Normalized Std Dev of Dispatch Costs</t>
-  </si>
-  <si>
     <t>cost-outputs</t>
   </si>
   <si>
@@ -1207,9 +1201,6 @@
     <t>You are modeling a region where electricity prices are fixed, and electricity suppliers are expected to absorb any increases or decreases in cost without passing on these costs or savings to electricity buyers</t>
   </si>
   <si>
-    <t>The EPS does not currently support end dates beyond 2050</t>
-  </si>
-  <si>
     <t>You are building a policy scenario that implements policies using a non-default schedule</t>
   </si>
   <si>
@@ -1988,6 +1979,48 @@
   </si>
   <si>
     <t>BBSoEVP BAU Battery Share of Electric Vehicle Price</t>
+  </si>
+  <si>
+    <t>EDLE</t>
+  </si>
+  <si>
+    <t>Electricity Dispatch Logit Exponent</t>
+  </si>
+  <si>
+    <t>MOfEDS</t>
+  </si>
+  <si>
+    <t>Manual Override for Electricity Dispatch Shareweights</t>
+  </si>
+  <si>
+    <t>You do not want the EPS to endogenously calculate the shareweights for the logit function for electricity dispatch and prefer to set your own shareweights manually.</t>
+  </si>
+  <si>
+    <t>You want to alter the end year.  The EPS supports end year dates out to 2100.</t>
+  </si>
+  <si>
+    <t>FpUCD</t>
+  </si>
+  <si>
+    <t>Fares per Unit Cargo Distance</t>
+  </si>
+  <si>
+    <t>AVIC</t>
+  </si>
+  <si>
+    <t>Annual Vehicle Insurance Cost</t>
+  </si>
+  <si>
+    <t>AVPC</t>
+  </si>
+  <si>
+    <t>Annual Vehicle Parking Cost</t>
+  </si>
+  <si>
+    <t>AVLRaPTC</t>
+  </si>
+  <si>
+    <t>Annual Vehicle Licensing Registration and Property Tax Costs</t>
   </si>
 </sst>
 </file>
@@ -2554,84 +2587,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>112</v>
       </c>
@@ -2639,50 +2672,50 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>114</v>
       </c>
@@ -2690,42 +2723,42 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>113</v>
       </c>
@@ -2733,84 +2766,84 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>155</v>
       </c>
@@ -2818,62 +2851,62 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -2886,26 +2919,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="67" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="54" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="2"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2919,24 +2952,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>111</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -2944,35 +2977,35 @@
         <v>112</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -2981,7 +3014,7 @@
       </c>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2995,7 +3028,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
@@ -3012,7 +3045,7 @@
       </c>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3026,7 +3059,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3037,10 +3070,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3057,7 +3090,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3068,30 +3101,30 @@
         <v>25</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -3105,7 +3138,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -3116,13 +3149,13 @@
         <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -3136,7 +3169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -3150,7 +3183,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -3164,7 +3197,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -3178,7 +3211,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -3192,7 +3225,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3206,21 +3239,21 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3231,13 +3264,13 @@
         <v>31</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3284,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -3262,13 +3295,13 @@
         <v>33</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -3282,7 +3315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -3296,94 +3329,94 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -3392,34 +3425,34 @@
       </c>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G32" s="27"/>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19" t="s">
@@ -3430,18 +3463,18 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="35" t="s">
@@ -3449,7 +3482,7 @@
       </c>
       <c r="G34" s="27"/>
     </row>
-    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -3457,7 +3490,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
@@ -3466,18 +3499,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="20" t="s">
@@ -3485,9 +3518,9 @@
       </c>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>5</v>
@@ -3502,15 +3535,15 @@
       </c>
       <c r="G37" s="27"/>
     </row>
-    <row r="38" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -3518,139 +3551,139 @@
         <v>155</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B46" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>489</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>492</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
@@ -3659,54 +3692,54 @@
       </c>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="B47" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="B47" s="27" t="s">
-        <v>490</v>
-      </c>
       <c r="C47" s="27" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
@@ -3714,10 +3747,10 @@
         <v>155</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
@@ -3731,21 +3764,21 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>39</v>
       </c>
@@ -3759,40 +3792,40 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F53" s="28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="29" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
       <c r="F54" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -3803,38 +3836,38 @@
         <v>176</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
@@ -3845,41 +3878,41 @@
         <v>57</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
@@ -3893,24 +3926,24 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>44</v>
       </c>
@@ -3924,24 +3957,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>44</v>
       </c>
@@ -3955,7 +3988,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
@@ -3966,27 +3999,27 @@
         <v>60</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
@@ -4000,7 +4033,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>44</v>
       </c>
@@ -4014,7 +4047,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>44</v>
       </c>
@@ -4025,44 +4058,44 @@
         <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>44</v>
       </c>
@@ -4076,10 +4109,10 @@
         <v>115</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>44</v>
       </c>
@@ -4097,284 +4130,287 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>190</v>
+        <v>649</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>650</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>544</v>
+        <v>190</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>545</v>
+        <v>191</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>464</v>
+        <v>541</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>621</v>
+        <v>491</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>617</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>317</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>357</v>
+        <v>64</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>467</v>
+        <v>354</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>468</v>
+        <v>355</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>575</v>
+        <v>464</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>203</v>
+        <v>572</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>235</v>
+        <v>651</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>44</v>
       </c>
@@ -4384,169 +4420,169 @@
       <c r="C93" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F93" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>531</v>
+        <v>241</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>604</v>
+        <v>527</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>605</v>
+        <v>528</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>218</v>
+        <v>601</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="19" t="s">
+    <row r="101" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B101" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G101" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="C100" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="G100" s="19" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>323</v>
@@ -4558,742 +4594,739 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F106" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="22" t="s">
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G109" s="19"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G110" s="27"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G110" s="19"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>560</v>
-      </c>
+      <c r="B111" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
       <c r="F111" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G111" s="27"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>445</v>
+        <v>555</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>446</v>
+        <v>556</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>442</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>318</v>
+        <v>443</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>644</v>
+        <v>370</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>621</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F123" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A123" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D123" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G123" s="27"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="D124" s="27"/>
+        <v>398</v>
+      </c>
+      <c r="D124" s="27" t="s">
+        <v>399</v>
+      </c>
       <c r="E124" s="27"/>
-      <c r="F124" s="37" t="s">
+      <c r="F124" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G124" s="27"/>
+    </row>
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G124" s="27"/>
-    </row>
-    <row r="125" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="2" t="s">
+      <c r="G125" s="27"/>
+    </row>
+    <row r="126" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F125" s="25" t="s">
+      <c r="B126" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F126" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="33" t="s">
+      <c r="G126" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C127" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="B126" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="D126" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="E126" s="33"/>
-      <c r="F126" s="21" t="s">
+      <c r="D127" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="E127" s="33"/>
+      <c r="F127" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G126" s="33"/>
-    </row>
-    <row r="127" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="13" t="s">
+      <c r="G127" s="33"/>
+    </row>
+    <row r="128" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B129" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B127" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>426</v>
-      </c>
       <c r="C129" s="13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C131" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D131" s="13" t="s">
         <v>435</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C132" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G133" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="F132" s="7" t="s">
+    </row>
+    <row r="134" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G132" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="C133" s="29" t="s">
+      <c r="G134" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G133" s="29" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="13" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="22" t="s">
+    </row>
+    <row r="135" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G134" s="24"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
+      <c r="G135" s="24"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" s="27" t="s">
+      <c r="B136" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B136" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="E136" s="27"/>
-      <c r="F136" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="G136" s="27"/>
-    </row>
-    <row r="137" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F137" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B137" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="E137" s="27"/>
+      <c r="F137" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="G137" s="27"/>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>386</v>
+        <v>234</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>592</v>
+        <v>384</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>593</v>
+        <v>385</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>586</v>
+        <v>77</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>78</v>
+        <v>583</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F142" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>610</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>238</v>
+        <v>607</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F146" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F150" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="C150" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G150" s="27"/>
-    </row>
-    <row r="151" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="27"/>
@@ -5302,66 +5335,66 @@
       </c>
       <c r="G151" s="27"/>
     </row>
-    <row r="152" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="19" t="s">
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B152" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="22" t="s">
+      <c r="B152" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G152" s="19"/>
-    </row>
-    <row r="153" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A153" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="B153" s="32" t="s">
-        <v>640</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="6" t="s">
+      <c r="G152" s="27"/>
+    </row>
+    <row r="153" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G153" s="19"/>
+    </row>
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B154" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G153" s="32"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G154" s="27"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G154" s="32"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="27"/>
@@ -5370,226 +5403,226 @@
       </c>
       <c r="G155" s="27"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="B156" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
+        <v>495</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C156" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
       <c r="F156" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G156" s="32"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G156" s="27"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
+        <v>495</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
       <c r="F157" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G157" s="27"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G157" s="32"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>648</v>
+        <v>507</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>649</v>
+        <v>508</v>
       </c>
       <c r="D158" s="27"/>
-      <c r="E158" s="27" t="s">
-        <v>512</v>
-      </c>
+      <c r="E158" s="27"/>
       <c r="F158" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G158" s="27"/>
     </row>
-    <row r="159" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>541</v>
+        <v>645</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>542</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="E159" s="27"/>
+        <v>646</v>
+      </c>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27" t="s">
+        <v>509</v>
+      </c>
       <c r="F159" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G159" s="27"/>
     </row>
-    <row r="160" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="F160" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="D160" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="E160" s="27"/>
+      <c r="F160" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G160" s="27"/>
+    </row>
+    <row r="161" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>502</v>
-      </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F161" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G161" s="27"/>
-    </row>
-    <row r="162" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>629</v>
+        <v>497</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>630</v>
+        <v>499</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27"/>
-      <c r="F162" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G162" s="27" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F162" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G162" s="27"/>
+    </row>
+    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27"/>
-      <c r="F163" s="4" t="s">
+      <c r="F163" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G163" s="27" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C164" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G163" s="27"/>
-    </row>
-    <row r="164" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="C164" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="E164" s="27"/>
-      <c r="F164" s="4"/>
       <c r="G164" s="27"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>627</v>
+        <v>563</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>628</v>
-      </c>
-      <c r="D165" s="27"/>
+        <v>564</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>565</v>
+      </c>
       <c r="E165" s="27"/>
-      <c r="F165" s="36" t="s">
+      <c r="F165" s="4"/>
+      <c r="G165" s="27"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G165" s="27" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="B166" s="27" t="s">
-        <v>594</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>595</v>
-      </c>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="F166" s="4" t="s">
+      <c r="G166" s="27" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="F167" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G166" s="27"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="B167" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="C167" s="27" t="s">
-        <v>591</v>
-      </c>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="G167" s="27"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>501</v>
+        <v>587</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>503</v>
+        <v>588</v>
       </c>
       <c r="D168" s="27"/>
       <c r="E168" s="27"/>
@@ -5598,15 +5631,15 @@
       </c>
       <c r="G168" s="27"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B169" s="27" t="s">
         <v>498</v>
       </c>
-      <c r="B169" s="27" t="s">
-        <v>552</v>
-      </c>
       <c r="C169" s="27" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="27"/>
@@ -5615,15 +5648,15 @@
       </c>
       <c r="G169" s="27"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D170" s="27"/>
       <c r="E170" s="27"/>
@@ -5632,903 +5665,979 @@
       </c>
       <c r="G170" s="27"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>642</v>
+        <v>551</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>643</v>
+        <v>552</v>
       </c>
       <c r="D171" s="27"/>
       <c r="E171" s="27"/>
-      <c r="F171" s="4" t="s">
-        <v>112</v>
+      <c r="F171" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G171" s="27"/>
     </row>
-    <row r="172" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>504</v>
+        <v>639</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>505</v>
+        <v>640</v>
       </c>
       <c r="D172" s="27"/>
       <c r="E172" s="27"/>
-      <c r="F172" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G172" s="27" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="21" t="s">
+      <c r="F172" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G173" s="19"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G172" s="27"/>
+    </row>
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G173" s="27" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G174" s="19"/>
+    </row>
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>363</v>
+        <v>246</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F175" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F177" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+      <c r="F178" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F181" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B182" s="19" t="s">
+      <c r="B182" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B183" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C182" s="19" t="s">
+      <c r="C183" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="22" t="s">
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G182" s="19"/>
-    </row>
-    <row r="183" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A183" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G183" s="19"/>
+    </row>
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F184" s="7" t="s">
+      <c r="F185" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G184" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="19" t="s">
+      <c r="G185" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B185" s="19" t="s">
+      <c r="B186" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C186" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C185" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="25" t="s">
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G185" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="2" t="s">
+      <c r="G186" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="B187" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
       <c r="F187" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G187" s="27"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>485</v>
+        <v>87</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>486</v>
+        <v>95</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>339</v>
+        <v>88</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>306</v>
+        <v>482</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>270</v>
+        <v>659</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>268</v>
+        <v>647</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+        <v>648</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A201" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B201" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B201" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>406</v>
+        <v>274</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>89</v>
+        <v>405</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>97</v>
+        <v>406</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A205" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B205" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>92</v>
+        <v>403</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>100</v>
+        <v>404</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>526</v>
+        <v>89</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>564</v>
+        <v>90</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>349</v>
+        <v>92</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F210" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>351</v>
+        <v>523</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F211" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>289</v>
+        <v>561</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F212" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>94</v>
+        <v>655</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>521</v>
+        <v>347</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>155</v>
+        <v>348</v>
+      </c>
+      <c r="F215" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>598</v>
+        <v>349</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+      <c r="F216" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F217" s="16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+      <c r="F217" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F218" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F219" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>274</v>
+        <v>518</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F220" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F221" s="16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>616</v>
+        <v>293</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+      <c r="F222" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="19" t="s">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B224" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C224" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G224" s="19"/>
-    </row>
-    <row r="225" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B224" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F225" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>261</v>
+        <v>615</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F226" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+      <c r="F226" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>297</v>
+        <v>613</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>299</v>
+        <v>614</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G229" s="19"/>
+    </row>
+    <row r="230" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F228" s="5" t="s">
+      <c r="B230" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F233" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="19" t="s">
+    <row r="234" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B229" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="C229" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D229" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="E229" s="19"/>
-      <c r="F229" s="20" t="s">
+      <c r="B234" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="E234" s="19"/>
+      <c r="F234" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="G229" s="19"/>
+      <c r="G234" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6545,13 +6654,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="52.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6559,7 +6668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6567,7 +6676,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -6575,7 +6684,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -6583,31 +6692,31 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -6615,23 +6724,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -6639,23 +6748,23 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -6663,15 +6772,15 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -6679,7 +6788,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -6687,7 +6796,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -6695,7 +6804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
